--- a/datafiles0128.xlsx
+++ b/datafiles0128.xlsx
@@ -191,13 +191,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0_ "/>
     <numFmt numFmtId="166" formatCode="H:MM"/>
     <numFmt numFmtId="167" formatCode="0.00_ "/>
-    <numFmt numFmtId="168" formatCode="0.00"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.00"/>
+    <numFmt numFmtId="170" formatCode="0%"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -319,7 +320,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -384,6 +385,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -412,6 +417,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -420,7 +429,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -504,7 +513,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U3" activeCellId="0" sqref="U3:V22"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -685,7 +694,7 @@
       </c>
       <c r="H3" s="11" t="n">
         <f aca="false">H4</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I3" s="13" t="n">
         <f aca="false">I4</f>
@@ -697,15 +706,15 @@
       </c>
       <c r="K3" s="13" t="n">
         <f aca="false">K4+G3-G4</f>
-        <v>9.594</v>
+        <v>9.114</v>
       </c>
       <c r="L3" s="2" t="n">
         <f aca="false">0.25*PI()*J3*J3*K3</f>
-        <v>6513.04766199741</v>
+        <v>6187.19161887059</v>
       </c>
       <c r="M3" s="14" t="n">
         <f aca="false">I3/L3*1000</f>
-        <v>1.62136077425257</v>
+        <v>1.70675173010524</v>
       </c>
       <c r="N3" s="13" t="n">
         <f aca="false">N4</f>
@@ -717,7 +726,7 @@
       </c>
       <c r="P3" s="14" t="n">
         <f aca="false">N3/L3*1000</f>
-        <v>1.418690677471</v>
+        <v>1.49340776384208</v>
       </c>
       <c r="Q3" s="14" t="n">
         <f aca="false">Q4</f>
@@ -735,16 +744,16 @@
         <f aca="false">N3/Q3*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U3" s="15" t="n">
+      <c r="U3" s="16" t="n">
         <f aca="false">(L3-T3)/L3</f>
-        <v>0.474559008344075</v>
+        <v>0.446886013391822</v>
       </c>
       <c r="V3" s="15" t="n">
         <f aca="false">S3/(L3-T3)</f>
-        <v>0.427070381592307</v>
+        <v>0.477401305634729</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,7 +780,7 @@
       </c>
       <c r="H4" s="11" t="n">
         <f aca="false">H5</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I4" s="13" t="n">
         <f aca="false">I5</f>
@@ -783,15 +792,15 @@
       </c>
       <c r="K4" s="13" t="n">
         <f aca="false">K5+G4-G5</f>
-        <v>9.624</v>
+        <v>9.14400000000001</v>
       </c>
       <c r="L4" s="2" t="n">
         <f aca="false">0.25*PI()*J4*J4*K4</f>
-        <v>6533.41366469284</v>
+        <v>6207.55762156602</v>
       </c>
       <c r="M4" s="14" t="n">
         <f aca="false">I4/L4*1000</f>
-        <v>1.61630665712585</v>
+        <v>1.70115215093823</v>
       </c>
       <c r="N4" s="13" t="n">
         <f aca="false">N5</f>
@@ -803,7 +812,7 @@
       </c>
       <c r="P4" s="14" t="n">
         <f aca="false">N4/L4*1000</f>
-        <v>1.41426832498511</v>
+        <v>1.48850813207095</v>
       </c>
       <c r="Q4" s="14" t="n">
         <f aca="false">Q5</f>
@@ -821,13 +830,13 @@
         <f aca="false">N4/Q4*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U4" s="15" t="n">
+      <c r="U4" s="16" t="n">
         <f aca="false">(L4-T4)/L4</f>
-        <v>0.47619691667218</v>
+        <v>0.448700691825576</v>
       </c>
       <c r="V4" s="15" t="n">
         <f aca="false">S4/(L4-T4)</f>
-        <v>0.424274759174505</v>
+        <v>0.47391061066146</v>
       </c>
       <c r="W4" s="1" t="n">
         <v>1</v>
@@ -857,7 +866,7 @@
       </c>
       <c r="H5" s="11" t="n">
         <f aca="false">H6</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I5" s="13" t="n">
         <f aca="false">I6</f>
@@ -869,15 +878,15 @@
       </c>
       <c r="K5" s="13" t="n">
         <f aca="false">K6+G5-G6</f>
-        <v>9.644</v>
+        <v>9.16400000000001</v>
       </c>
       <c r="L5" s="2" t="n">
         <f aca="false">0.25*PI()*J5*J5*K5</f>
-        <v>6546.99099982312</v>
+        <v>6221.1349566963</v>
       </c>
       <c r="M5" s="14" t="n">
         <f aca="false">I5/L5*1000</f>
-        <v>1.6129547146598</v>
+        <v>1.69743946619152</v>
       </c>
       <c r="N5" s="13" t="n">
         <f aca="false">N6</f>
@@ -889,7 +898,7 @@
       </c>
       <c r="P5" s="14" t="n">
         <f aca="false">N5/L5*1000</f>
-        <v>1.41133537532733</v>
+        <v>1.48525953291758</v>
       </c>
       <c r="Q5" s="14" t="n">
         <f aca="false">Q6</f>
@@ -907,13 +916,13 @@
         <f aca="false">N5/Q5*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U5" s="15" t="n">
+      <c r="U5" s="16" t="n">
         <f aca="false">(L5-T5)/L5</f>
-        <v>0.477283194323212</v>
+        <v>0.449903876697192</v>
       </c>
       <c r="V5" s="15" t="n">
         <f aca="false">S5/(L5-T5)</f>
-        <v>0.422431256181923</v>
+        <v>0.471611702552073</v>
       </c>
       <c r="W5" s="1" t="n">
         <v>1</v>
@@ -943,7 +952,7 @@
       </c>
       <c r="H6" s="11" t="n">
         <f aca="false">H7</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I6" s="13" t="n">
         <f aca="false">I7</f>
@@ -955,15 +964,15 @@
       </c>
       <c r="K6" s="13" t="n">
         <f aca="false">K7+G6-G7</f>
-        <v>9.654</v>
+        <v>9.17400000000001</v>
       </c>
       <c r="L6" s="2" t="n">
         <f aca="false">0.25*PI()*J6*J6*K6</f>
-        <v>6553.77966738827</v>
+        <v>6227.92362426144</v>
       </c>
       <c r="M6" s="14" t="n">
         <f aca="false">I6/L6*1000</f>
-        <v>1.61128395154124</v>
+        <v>1.69558919426413</v>
       </c>
       <c r="N6" s="13" t="n">
         <f aca="false">N7</f>
@@ -975,7 +984,7 @@
       </c>
       <c r="P6" s="14" t="n">
         <f aca="false">N6/L6*1000</f>
-        <v>1.40987345759859</v>
+        <v>1.48364054498111</v>
       </c>
       <c r="Q6" s="14" t="n">
         <f aca="false">Q7</f>
@@ -993,13 +1002,13 @@
         <f aca="false">N6/Q6*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U6" s="15" t="n">
+      <c r="U6" s="16" t="n">
         <f aca="false">(L6-T6)/L6</f>
-        <v>0.477824645333857</v>
+        <v>0.450503501858847</v>
       </c>
       <c r="V6" s="15" t="n">
         <f aca="false">S6/(L6-T6)</f>
-        <v>0.421515499272602</v>
+        <v>0.470470592145196</v>
       </c>
       <c r="W6" s="1" t="n">
         <v>1</v>
@@ -1029,7 +1038,7 @@
       </c>
       <c r="H7" s="11" t="n">
         <f aca="false">H8</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I7" s="13" t="n">
         <f aca="false">I8</f>
@@ -1041,15 +1050,15 @@
       </c>
       <c r="K7" s="13" t="n">
         <f aca="false">K8+G7-G8</f>
-        <v>9.674</v>
+        <v>9.19400000000001</v>
       </c>
       <c r="L7" s="2" t="n">
         <f aca="false">0.25*PI()*J7*J7*K7</f>
-        <v>6567.35700251855</v>
+        <v>6241.50095939173</v>
       </c>
       <c r="M7" s="14" t="n">
         <f aca="false">I7/L7*1000</f>
-        <v>1.60795278769683</v>
+        <v>1.69190072527508</v>
       </c>
       <c r="N7" s="13" t="n">
         <f aca="false">N8</f>
@@ -1061,7 +1070,7 @@
       </c>
       <c r="P7" s="14" t="n">
         <f aca="false">N7/L7*1000</f>
-        <v>1.40695868923473</v>
+        <v>1.4804131346157</v>
       </c>
       <c r="Q7" s="14" t="n">
         <f aca="false">Q8</f>
@@ -1079,13 +1088,13 @@
         <f aca="false">N7/Q7*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U7" s="15" t="n">
+      <c r="U7" s="16" t="n">
         <f aca="false">(L7-T7)/L7</f>
-        <v>0.478904189172324</v>
+        <v>0.451698839031223</v>
       </c>
       <c r="V7" s="15" t="n">
         <f aca="false">S7/(L7-T7)</f>
-        <v>0.41969584523676</v>
+        <v>0.468204857716641</v>
       </c>
       <c r="W7" s="1" t="n">
         <v>1</v>
@@ -1115,7 +1124,7 @@
       </c>
       <c r="H8" s="11" t="n">
         <f aca="false">H9</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I8" s="13" t="n">
         <f aca="false">I9</f>
@@ -1127,15 +1136,15 @@
       </c>
       <c r="K8" s="13" t="n">
         <f aca="false">K9+G8-G9</f>
-        <v>9.674</v>
+        <v>9.19400000000001</v>
       </c>
       <c r="L8" s="2" t="n">
         <f aca="false">0.25*PI()*J8*J8*K8</f>
-        <v>6567.35700251855</v>
+        <v>6241.50095939173</v>
       </c>
       <c r="M8" s="14" t="n">
         <f aca="false">I8/L8*1000</f>
-        <v>1.60795278769683</v>
+        <v>1.69190072527508</v>
       </c>
       <c r="N8" s="13" t="n">
         <f aca="false">N9</f>
@@ -1147,7 +1156,7 @@
       </c>
       <c r="P8" s="14" t="n">
         <f aca="false">N8/L8*1000</f>
-        <v>1.40695868923473</v>
+        <v>1.4804131346157</v>
       </c>
       <c r="Q8" s="14" t="n">
         <f aca="false">Q9</f>
@@ -1165,13 +1174,13 @@
         <f aca="false">N8/Q8*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U8" s="15" t="n">
+      <c r="U8" s="16" t="n">
         <f aca="false">(L8-T8)/L8</f>
-        <v>0.478904189172324</v>
+        <v>0.451698839031223</v>
       </c>
       <c r="V8" s="15" t="n">
         <f aca="false">S8/(L8-T8)</f>
-        <v>0.41969584523676</v>
+        <v>0.468204857716641</v>
       </c>
       <c r="W8" s="1" t="n">
         <v>1</v>
@@ -1201,7 +1210,7 @@
       </c>
       <c r="H9" s="11" t="n">
         <f aca="false">H10</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I9" s="13" t="n">
         <f aca="false">I10</f>
@@ -1213,15 +1222,15 @@
       </c>
       <c r="K9" s="13" t="n">
         <f aca="false">K10+G9-G10</f>
-        <v>9.674</v>
+        <v>9.19400000000001</v>
       </c>
       <c r="L9" s="2" t="n">
         <f aca="false">0.25*PI()*J9*J9*K9</f>
-        <v>6567.35700251855</v>
+        <v>6241.50095939173</v>
       </c>
       <c r="M9" s="14" t="n">
         <f aca="false">I9/L9*1000</f>
-        <v>1.60795278769683</v>
+        <v>1.69190072527508</v>
       </c>
       <c r="N9" s="13" t="n">
         <f aca="false">N10</f>
@@ -1233,7 +1242,7 @@
       </c>
       <c r="P9" s="14" t="n">
         <f aca="false">N9/L9*1000</f>
-        <v>1.40695868923473</v>
+        <v>1.4804131346157</v>
       </c>
       <c r="Q9" s="14" t="n">
         <f aca="false">Q10</f>
@@ -1251,13 +1260,13 @@
         <f aca="false">N9/Q9*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U9" s="15" t="n">
+      <c r="U9" s="16" t="n">
         <f aca="false">(L9-T9)/L9</f>
-        <v>0.478904189172324</v>
+        <v>0.451698839031223</v>
       </c>
       <c r="V9" s="15" t="n">
         <f aca="false">S9/(L9-T9)</f>
-        <v>0.41969584523676</v>
+        <v>0.468204857716641</v>
       </c>
       <c r="W9" s="1" t="n">
         <v>1</v>
@@ -1287,7 +1296,7 @@
       </c>
       <c r="H10" s="11" t="n">
         <f aca="false">H11</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I10" s="13" t="n">
         <f aca="false">I11</f>
@@ -1299,15 +1308,15 @@
       </c>
       <c r="K10" s="13" t="n">
         <f aca="false">K11+G10-G11</f>
-        <v>9.174</v>
+        <v>8.694</v>
       </c>
       <c r="L10" s="2" t="n">
         <f aca="false">0.25*PI()*J10*J10*K10</f>
-        <v>6227.92362426144</v>
+        <v>5902.06758113462</v>
       </c>
       <c r="M10" s="14" t="n">
         <f aca="false">I10/L10*1000</f>
-        <v>1.69558919426413</v>
+        <v>1.78920350450646</v>
       </c>
       <c r="N10" s="13" t="n">
         <f aca="false">N11</f>
@@ -1319,7 +1328,7 @@
       </c>
       <c r="P10" s="14" t="n">
         <f aca="false">N10/L10*1000</f>
-        <v>1.48364054498111</v>
+        <v>1.56555306644315</v>
       </c>
       <c r="Q10" s="14" t="n">
         <f aca="false">Q11</f>
@@ -1337,13 +1346,13 @@
         <f aca="false">N10/Q10*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U10" s="15" t="n">
+      <c r="U10" s="16" t="n">
         <f aca="false">(L10-T10)/L10</f>
-        <v>0.450503501858847</v>
+        <v>0.420165530946982</v>
       </c>
       <c r="V10" s="15" t="n">
         <f aca="false">S10/(L10-T10)</f>
-        <v>0.470470592145197</v>
+        <v>0.53229125568496</v>
       </c>
       <c r="W10" s="1" t="n">
         <v>1</v>
@@ -1373,7 +1382,7 @@
       </c>
       <c r="H11" s="11" t="n">
         <f aca="false">H12</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I11" s="13" t="n">
         <f aca="false">I12</f>
@@ -1385,15 +1394,15 @@
       </c>
       <c r="K11" s="13" t="n">
         <f aca="false">K12+G11-G12</f>
-        <v>9.184</v>
+        <v>8.704</v>
       </c>
       <c r="L11" s="2" t="n">
         <f aca="false">0.25*PI()*J11*J11*K11</f>
-        <v>6234.71229182658</v>
+        <v>5908.85624869976</v>
       </c>
       <c r="M11" s="14" t="n">
         <f aca="false">I11/L11*1000</f>
-        <v>1.69374295167456</v>
+        <v>1.78714789386249</v>
       </c>
       <c r="N11" s="13" t="n">
         <f aca="false">N12</f>
@@ -1405,7 +1414,7 @@
       </c>
       <c r="P11" s="14" t="n">
         <f aca="false">N11/L11*1000</f>
-        <v>1.48202508271524</v>
+        <v>1.56375440712968</v>
       </c>
       <c r="Q11" s="14" t="n">
         <f aca="false">Q12</f>
@@ -1423,13 +1432,13 @@
         <f aca="false">N11/Q11*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U11" s="15" t="n">
+      <c r="U11" s="16" t="n">
         <f aca="false">(L11-T11)/L11</f>
-        <v>0.451101821216578</v>
+        <v>0.420831701063082</v>
       </c>
       <c r="V11" s="15" t="n">
         <f aca="false">S11/(L11-T11)</f>
-        <v>0.469334990464762</v>
+        <v>0.530838067019398</v>
       </c>
       <c r="W11" s="1" t="n">
         <v>1</v>
@@ -1459,7 +1468,7 @@
       </c>
       <c r="H12" s="11" t="n">
         <f aca="false">H13</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I12" s="13" t="n">
         <f aca="false">I13</f>
@@ -1471,15 +1480,15 @@
       </c>
       <c r="K12" s="13" t="n">
         <f aca="false">K13+G12-G13</f>
-        <v>9.184</v>
+        <v>8.704</v>
       </c>
       <c r="L12" s="2" t="n">
         <f aca="false">0.25*PI()*J12*J12*K12</f>
-        <v>6234.71229182658</v>
+        <v>5908.85624869976</v>
       </c>
       <c r="M12" s="14" t="n">
         <f aca="false">I12/L12*1000</f>
-        <v>1.69374295167456</v>
+        <v>1.78714789386249</v>
       </c>
       <c r="N12" s="13" t="n">
         <f aca="false">N13</f>
@@ -1491,7 +1500,7 @@
       </c>
       <c r="P12" s="14" t="n">
         <f aca="false">N12/L12*1000</f>
-        <v>1.48202508271524</v>
+        <v>1.56375440712968</v>
       </c>
       <c r="Q12" s="14" t="n">
         <f aca="false">Q13</f>
@@ -1509,13 +1518,13 @@
         <f aca="false">N12/Q12*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U12" s="15" t="n">
+      <c r="U12" s="16" t="n">
         <f aca="false">(L12-T12)/L12</f>
-        <v>0.451101821216578</v>
+        <v>0.420831701063082</v>
       </c>
       <c r="V12" s="15" t="n">
         <f aca="false">S12/(L12-T12)</f>
-        <v>0.469334990464762</v>
+        <v>0.530838067019398</v>
       </c>
       <c r="W12" s="1" t="n">
         <v>1</v>
@@ -1545,7 +1554,7 @@
       </c>
       <c r="H13" s="11" t="n">
         <f aca="false">H14</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I13" s="13" t="n">
         <f aca="false">I14</f>
@@ -1557,15 +1566,15 @@
       </c>
       <c r="K13" s="13" t="n">
         <f aca="false">K14+G13-G14</f>
-        <v>9.184</v>
+        <v>8.704</v>
       </c>
       <c r="L13" s="2" t="n">
         <f aca="false">0.25*PI()*J13*J13*K13</f>
-        <v>6234.71229182658</v>
+        <v>5908.85624869976</v>
       </c>
       <c r="M13" s="14" t="n">
         <f aca="false">I13/L13*1000</f>
-        <v>1.69374295167456</v>
+        <v>1.78714789386249</v>
       </c>
       <c r="N13" s="13" t="n">
         <f aca="false">N14</f>
@@ -1577,7 +1586,7 @@
       </c>
       <c r="P13" s="14" t="n">
         <f aca="false">N13/L13*1000</f>
-        <v>1.48202508271524</v>
+        <v>1.56375440712968</v>
       </c>
       <c r="Q13" s="14" t="n">
         <f aca="false">Q14</f>
@@ -1595,13 +1604,13 @@
         <f aca="false">N13/Q13*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U13" s="15" t="n">
+      <c r="U13" s="16" t="n">
         <f aca="false">(L13-T13)/L13</f>
-        <v>0.451101821216578</v>
+        <v>0.420831701063081</v>
       </c>
       <c r="V13" s="15" t="n">
         <f aca="false">S13/(L13-T13)</f>
-        <v>0.469334990464762</v>
+        <v>0.530838067019399</v>
       </c>
       <c r="W13" s="1" t="n">
         <v>1</v>
@@ -1631,7 +1640,7 @@
       </c>
       <c r="H14" s="11" t="n">
         <f aca="false">H15</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I14" s="13" t="n">
         <f aca="false">I15</f>
@@ -1643,15 +1652,15 @@
       </c>
       <c r="K14" s="13" t="n">
         <f aca="false">K15+G14-G15</f>
-        <v>9.194</v>
+        <v>8.714</v>
       </c>
       <c r="L14" s="2" t="n">
         <f aca="false">0.25*PI()*J14*J14*K14</f>
-        <v>6241.50095939172</v>
+        <v>5915.6449162649</v>
       </c>
       <c r="M14" s="14" t="n">
         <f aca="false">I14/L14*1000</f>
-        <v>1.69190072527509</v>
+        <v>1.78509700116814</v>
       </c>
       <c r="N14" s="13" t="n">
         <f aca="false">N15</f>
@@ -1663,7 +1672,7 @@
       </c>
       <c r="P14" s="14" t="n">
         <f aca="false">N14/L14*1000</f>
-        <v>1.4804131346157</v>
+        <v>1.56195987602212</v>
       </c>
       <c r="Q14" s="14" t="n">
         <f aca="false">Q15</f>
@@ -1681,13 +1690,13 @@
         <f aca="false">N14/Q14*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U14" s="15" t="n">
+      <c r="U14" s="16" t="n">
         <f aca="false">(L14-T14)/L14</f>
-        <v>0.451698839031222</v>
+        <v>0.42149634221403</v>
       </c>
       <c r="V14" s="15" t="n">
         <f aca="false">S14/(L14-T14)</f>
-        <v>0.468204857716642</v>
+        <v>0.529392791344108</v>
       </c>
       <c r="W14" s="1" t="n">
         <v>1</v>
@@ -1717,7 +1726,7 @@
       </c>
       <c r="H15" s="11" t="n">
         <f aca="false">H16</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I15" s="13" t="n">
         <f aca="false">I16</f>
@@ -1729,15 +1738,15 @@
       </c>
       <c r="K15" s="13" t="n">
         <f aca="false">K16+G15-G16</f>
-        <v>8.594</v>
+        <v>8.114</v>
       </c>
       <c r="L15" s="2" t="n">
         <f aca="false">0.25*PI()*J15*J15*K15</f>
-        <v>5834.18090548319</v>
+        <v>5508.32486235637</v>
       </c>
       <c r="M15" s="14" t="n">
         <f aca="false">I15/L15*1000</f>
-        <v>1.8100227214544</v>
+        <v>1.91709825834103</v>
       </c>
       <c r="N15" s="13" t="n">
         <f aca="false">N16</f>
@@ -1749,7 +1758,7 @@
       </c>
       <c r="P15" s="14" t="n">
         <f aca="false">N15/L15*1000</f>
-        <v>1.5837698812726</v>
+        <v>1.6774609760484</v>
       </c>
       <c r="Q15" s="14" t="n">
         <f aca="false">Q16</f>
@@ -1767,16 +1776,16 @@
         <f aca="false">N15/Q15*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U15" s="15" t="n">
+      <c r="U15" s="16" t="n">
         <f aca="false">(L15-T15)/L15</f>
-        <v>0.413418562491628</v>
+        <v>0.37871815701911</v>
       </c>
       <c r="V15" s="15" t="n">
         <f aca="false">S15/(L15-T15)</f>
-        <v>0.547273056193218</v>
+        <v>0.632758894315534</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,7 +1812,7 @@
       </c>
       <c r="H16" s="11" t="n">
         <f aca="false">H17</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I16" s="13" t="n">
         <f aca="false">I17</f>
@@ -1815,15 +1824,15 @@
       </c>
       <c r="K16" s="13" t="n">
         <f aca="false">K17+G16-G17</f>
-        <v>8.674</v>
+        <v>8.194</v>
       </c>
       <c r="L16" s="2" t="n">
         <f aca="false">0.25*PI()*J16*J16*K16</f>
-        <v>5888.49024600433</v>
+        <v>5562.63420287751</v>
       </c>
       <c r="M16" s="14" t="n">
         <f aca="false">I16/L16*1000</f>
-        <v>1.79332894491344</v>
+        <v>1.89838116526472</v>
       </c>
       <c r="N16" s="13" t="n">
         <f aca="false">N17</f>
@@ -1835,7 +1844,7 @@
       </c>
       <c r="P16" s="14" t="n">
         <f aca="false">N16/L16*1000</f>
-        <v>1.56916282679926</v>
+        <v>1.66108351960663</v>
       </c>
       <c r="Q16" s="14" t="n">
         <f aca="false">Q17</f>
@@ -1853,13 +1862,13 @@
         <f aca="false">N16/Q16*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U16" s="15" t="n">
+      <c r="U16" s="16" t="n">
         <f aca="false">(L16-T16)/L16</f>
-        <v>0.418828582666942</v>
+        <v>0.384783881627174</v>
       </c>
       <c r="V16" s="15" t="n">
         <f aca="false">S16/(L16-T16)</f>
-        <v>0.535221633363164</v>
+        <v>0.616703705608994</v>
       </c>
       <c r="W16" s="1" t="n">
         <v>1</v>
@@ -1889,7 +1898,7 @@
       </c>
       <c r="H17" s="11" t="n">
         <f aca="false">H18</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I17" s="13" t="n">
         <f aca="false">I18</f>
@@ -1901,15 +1910,15 @@
       </c>
       <c r="K17" s="13" t="n">
         <f aca="false">K18+G17-G18</f>
-        <v>8.684</v>
+        <v>8.204</v>
       </c>
       <c r="L17" s="2" t="n">
         <f aca="false">0.25*PI()*J17*J17*K17</f>
-        <v>5895.27891356947</v>
+        <v>5569.42287044265</v>
       </c>
       <c r="M17" s="14" t="n">
         <f aca="false">I17/L17*1000</f>
-        <v>1.7912638493988</v>
+        <v>1.89606719504865</v>
       </c>
       <c r="N17" s="13" t="n">
         <f aca="false">N18</f>
@@ -1921,7 +1930,7 @@
       </c>
       <c r="P17" s="14" t="n">
         <f aca="false">N17/L17*1000</f>
-        <v>1.56735586822395</v>
+        <v>1.65905879566757</v>
       </c>
       <c r="Q17" s="14" t="n">
         <f aca="false">Q18</f>
@@ -1939,13 +1948,13 @@
         <f aca="false">N17/Q17*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U17" s="15" t="n">
+      <c r="U17" s="16" t="n">
         <f aca="false">(L17-T17)/L17</f>
-        <v>0.419497826583724</v>
+        <v>0.385533779382382</v>
       </c>
       <c r="V17" s="15" t="n">
         <f aca="false">S17/(L17-T17)</f>
-        <v>0.533752422505488</v>
+        <v>0.614753912771961</v>
       </c>
       <c r="W17" s="1" t="n">
         <v>1</v>
@@ -1975,7 +1984,7 @@
       </c>
       <c r="H18" s="11" t="n">
         <f aca="false">H19</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I18" s="13" t="n">
         <f aca="false">I19</f>
@@ -1987,15 +1996,15 @@
       </c>
       <c r="K18" s="13" t="n">
         <f aca="false">K19+G18-G19</f>
-        <v>8.084</v>
+        <v>7.604</v>
       </c>
       <c r="L18" s="2" t="n">
         <f aca="false">0.25*PI()*J18*J18*K18</f>
-        <v>5487.95885966094</v>
+        <v>5162.10281653412</v>
       </c>
       <c r="M18" s="14" t="n">
         <f aca="false">I18/L18*1000</f>
-        <v>1.92421267543037</v>
+        <v>2.04567796793518</v>
       </c>
       <c r="N18" s="13" t="n">
         <f aca="false">N19</f>
@@ -2007,7 +2016,7 @@
       </c>
       <c r="P18" s="14" t="n">
         <f aca="false">N18/L18*1000</f>
-        <v>1.68368609100158</v>
+        <v>1.78996822194329</v>
       </c>
       <c r="Q18" s="14" t="n">
         <f aca="false">Q19</f>
@@ -2025,16 +2034,16 @@
         <f aca="false">N18/Q18*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U18" s="15" t="n">
+      <c r="U18" s="16" t="n">
         <f aca="false">(L18-T18)/L18</f>
-        <v>0.376412558888305</v>
+        <v>0.337048806687672</v>
       </c>
       <c r="V18" s="15" t="n">
         <f aca="false">S18/(L18-T18)</f>
-        <v>0.638997235212255</v>
+        <v>0.758672752782811</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2061,7 +2070,7 @@
       </c>
       <c r="H19" s="11" t="n">
         <f aca="false">H20</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I19" s="13" t="n">
         <f aca="false">I20</f>
@@ -2073,15 +2082,15 @@
       </c>
       <c r="K19" s="13" t="n">
         <f aca="false">K20+G19-G20</f>
-        <v>8.074</v>
+        <v>7.594</v>
       </c>
       <c r="L19" s="2" t="n">
         <f aca="false">0.25*PI()*J19*J19*K19</f>
-        <v>5481.1701920958</v>
+        <v>5155.31414896898</v>
       </c>
       <c r="M19" s="14" t="n">
         <f aca="false">I19/L19*1000</f>
-        <v>1.92659589647995</v>
+        <v>2.04837177616265</v>
       </c>
       <c r="N19" s="13" t="n">
         <f aca="false">N20</f>
@@ -2093,7 +2102,7 @@
       </c>
       <c r="P19" s="14" t="n">
         <f aca="false">N19/L19*1000</f>
-        <v>1.68577140941996</v>
+        <v>1.79232530414232</v>
       </c>
       <c r="Q19" s="14" t="n">
         <f aca="false">Q20</f>
@@ -2111,13 +2120,13 @@
         <f aca="false">N19/Q19*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U19" s="15" t="n">
+      <c r="U19" s="16" t="n">
         <f aca="false">(L19-T19)/L19</f>
-        <v>0.375640218733349</v>
+        <v>0.336175813280625</v>
       </c>
       <c r="V19" s="15" t="n">
         <f aca="false">S19/(L19-T19)</f>
-        <v>0.641104107201432</v>
+        <v>0.76164453808161</v>
       </c>
       <c r="W19" s="1" t="n">
         <v>1</v>
@@ -2147,7 +2156,7 @@
       </c>
       <c r="H20" s="11" t="n">
         <f aca="false">H21</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I20" s="13" t="n">
         <f aca="false">I21</f>
@@ -2159,15 +2168,15 @@
       </c>
       <c r="K20" s="13" t="n">
         <f aca="false">K21+G20-G21</f>
-        <v>8.064</v>
+        <v>7.584</v>
       </c>
       <c r="L20" s="2" t="n">
         <f aca="false">0.25*PI()*J20*J20*K20</f>
-        <v>5474.38152453065</v>
+        <v>5148.52548140383</v>
       </c>
       <c r="M20" s="14" t="n">
         <f aca="false">I20/L20*1000</f>
-        <v>1.92898502829602</v>
+        <v>2.05107268831476</v>
       </c>
       <c r="N20" s="13" t="n">
         <f aca="false">N21</f>
@@ -2179,7 +2188,7 @@
       </c>
       <c r="P20" s="14" t="n">
         <f aca="false">N20/L20*1000</f>
-        <v>1.68786189975902</v>
+        <v>1.79468860227541</v>
       </c>
       <c r="Q20" s="14" t="n">
         <f aca="false">Q21</f>
@@ -2197,13 +2206,13 @@
         <f aca="false">N20/Q20*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U20" s="15" t="n">
+      <c r="U20" s="16" t="n">
         <f aca="false">(L20-T20)/L20</f>
-        <v>0.374865963052214</v>
+        <v>0.335300517675773</v>
       </c>
       <c r="V20" s="15" t="n">
         <f aca="false">S20/(L20-T20)</f>
-        <v>0.64322491851152</v>
+        <v>0.76463969640292</v>
       </c>
       <c r="W20" s="1" t="n">
         <v>1</v>
@@ -2233,7 +2242,7 @@
       </c>
       <c r="H21" s="11" t="n">
         <f aca="false">H22</f>
-        <v>0.4</v>
+        <v>0.880000000000001</v>
       </c>
       <c r="I21" s="13" t="n">
         <f aca="false">I22</f>
@@ -2245,15 +2254,15 @@
       </c>
       <c r="K21" s="13" t="n">
         <f aca="false">K22+G21-G22</f>
-        <v>8.064</v>
+        <v>7.584</v>
       </c>
       <c r="L21" s="2" t="n">
         <f aca="false">0.25*PI()*J21*J21*K21</f>
-        <v>5474.38152453065</v>
+        <v>5148.52548140383</v>
       </c>
       <c r="M21" s="14" t="n">
         <f aca="false">I21/L21*1000</f>
-        <v>1.92898502829602</v>
+        <v>2.05107268831476</v>
       </c>
       <c r="N21" s="13" t="n">
         <f aca="false">N22</f>
@@ -2265,7 +2274,7 @@
       </c>
       <c r="P21" s="14" t="n">
         <f aca="false">N21/L21*1000</f>
-        <v>1.68786189975902</v>
+        <v>1.79468860227541</v>
       </c>
       <c r="Q21" s="14" t="n">
         <f aca="false">Q22</f>
@@ -2283,13 +2292,13 @@
         <f aca="false">N21/Q21*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U21" s="15" t="n">
+      <c r="U21" s="16" t="n">
         <f aca="false">(L21-T21)/L21</f>
-        <v>0.374865963052214</v>
+        <v>0.335300517675773</v>
       </c>
       <c r="V21" s="15" t="n">
         <f aca="false">S21/(L21-T21)</f>
-        <v>0.64322491851152</v>
+        <v>0.76463969640292</v>
       </c>
       <c r="W21" s="1" t="n">
         <v>1</v>
@@ -2299,7 +2308,7 @@
       <c r="A22" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="10" t="n">
@@ -2311,37 +2320,37 @@
       <c r="E22" s="10" t="n">
         <v>28</v>
       </c>
-      <c r="F22" s="17" t="n">
+      <c r="F22" s="18" t="n">
         <v>0.979861111111111</v>
       </c>
       <c r="G22" s="10" t="n">
         <v>9.12</v>
       </c>
-      <c r="H22" s="16" t="n">
+      <c r="H22" s="17" t="n">
         <f aca="false">G23-G22</f>
-        <v>0.4</v>
-      </c>
-      <c r="I22" s="18" t="n">
+        <v>0.880000000000001</v>
+      </c>
+      <c r="I22" s="19" t="n">
         <f aca="false">I23</f>
         <v>10.56</v>
       </c>
-      <c r="J22" s="18" t="n">
+      <c r="J22" s="19" t="n">
         <f aca="false">J23</f>
         <v>29.4</v>
       </c>
-      <c r="K22" s="18" t="n">
+      <c r="K22" s="19" t="n">
         <f aca="false">K23-H22</f>
-        <v>8.064</v>
-      </c>
-      <c r="L22" s="19" t="n">
+        <v>7.584</v>
+      </c>
+      <c r="L22" s="20" t="n">
         <f aca="false">0.25*PI()*J22*J22*K22</f>
-        <v>5474.38152453066</v>
-      </c>
-      <c r="M22" s="20" t="n">
+        <v>5148.52548140383</v>
+      </c>
+      <c r="M22" s="21" t="n">
         <f aca="false">I22/L22*1000</f>
-        <v>1.92898502829602</v>
-      </c>
-      <c r="N22" s="18" t="n">
+        <v>2.05107268831476</v>
+      </c>
+      <c r="N22" s="19" t="n">
         <f aca="false">N23</f>
         <v>9.24</v>
       </c>
@@ -2349,15 +2358,15 @@
         <f aca="false">I22-N22</f>
         <v>1.32</v>
       </c>
-      <c r="P22" s="20" t="n">
+      <c r="P22" s="21" t="n">
         <f aca="false">N22/L22*1000</f>
-        <v>1.68786189975902</v>
-      </c>
-      <c r="Q22" s="21" t="n">
+        <v>1.79468860227542</v>
+      </c>
+      <c r="Q22" s="22" t="n">
         <f aca="false">Q23</f>
         <v>2.7</v>
       </c>
-      <c r="R22" s="22" t="n">
+      <c r="R22" s="23" t="n">
         <f aca="false">O22/N22</f>
         <v>0.142857142857143</v>
       </c>
@@ -2365,17 +2374,17 @@
         <f aca="false">O22*1000</f>
         <v>1320</v>
       </c>
-      <c r="T22" s="19" t="n">
+      <c r="T22" s="20" t="n">
         <f aca="false">N22/Q22*1000</f>
         <v>3422.22222222222</v>
       </c>
-      <c r="U22" s="22" t="n">
+      <c r="U22" s="24" t="n">
         <f aca="false">(L22-T22)/L22</f>
-        <v>0.374865963052214</v>
-      </c>
-      <c r="V22" s="22" t="n">
+        <v>0.335300517675773</v>
+      </c>
+      <c r="V22" s="23" t="n">
         <f aca="false">S22/(L22-T22)</f>
-        <v>0.64322491851152</v>
+        <v>0.764639696402921</v>
       </c>
       <c r="W22" s="10" t="n">
         <v>1</v>
@@ -2387,29 +2396,29 @@
         <v>54</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>9.52</v>
+        <v>10</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="23" t="n">
+      <c r="I23" s="25" t="n">
         <v>10.56</v>
       </c>
-      <c r="J23" s="23" t="n">
+      <c r="J23" s="25" t="n">
         <v>29.4</v>
       </c>
-      <c r="K23" s="23" t="n">
+      <c r="K23" s="25" t="n">
         <v>8.464</v>
       </c>
       <c r="M23" s="14"/>
-      <c r="N23" s="23" t="n">
+      <c r="N23" s="25" t="n">
         <v>9.24</v>
       </c>
       <c r="P23" s="14"/>
-      <c r="Q23" s="24" t="n">
+      <c r="Q23" s="26" t="n">
         <v>2.7</v>
       </c>
-      <c r="R23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
+      <c r="R23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/datafiles0128.xlsx
+++ b/datafiles0128.xlsx
@@ -49,10 +49,10 @@
     <t xml:space="preserve">m_wet</t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h</t>
+    <t xml:space="preserve">diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">height</t>
   </si>
   <si>
     <t xml:space="preserve">volume</t>
@@ -513,7 +513,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="T18" activeCellId="0" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1355,7 +1355,7 @@
         <v>0.53229125568496</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
